--- a/data/posiciones.xlsx
+++ b/data/posiciones.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
   <si>
     <t>id_activo</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>2025-11-11 01:37:25</t>
+  </si>
+  <si>
+    <t>2025-11-11 08:24:35</t>
+  </si>
+  <si>
+    <t>2025-11-11 08:24:36</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3064,8 +3070,8 @@
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" t="s">
-        <v>7</v>
+      <c r="A186">
+        <v>1</v>
       </c>
       <c r="E186">
         <v>9.925565912405506</v>
@@ -3078,8 +3084,8 @@
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" t="s">
-        <v>8</v>
+      <c r="A187">
+        <v>2</v>
       </c>
       <c r="E187">
         <v>8.743936220084137</v>
@@ -3092,8 +3098,8 @@
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" t="s">
-        <v>9</v>
+      <c r="A188">
+        <v>3</v>
       </c>
       <c r="E188">
         <v>9.935</v>
@@ -3106,8 +3112,8 @@
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" t="s">
-        <v>10</v>
+      <c r="A189">
+        <v>4</v>
       </c>
       <c r="E189">
         <v>9.977</v>
@@ -3120,8 +3126,8 @@
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" t="s">
-        <v>11</v>
+      <c r="A190">
+        <v>5</v>
       </c>
       <c r="E190">
         <v>10.016</v>
@@ -3134,8 +3140,8 @@
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" t="s">
-        <v>12</v>
+      <c r="A191">
+        <v>7</v>
       </c>
       <c r="E191">
         <v>9.377247973297916</v>
@@ -3148,8 +3154,8 @@
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" t="s">
-        <v>13</v>
+      <c r="A192">
+        <v>8</v>
       </c>
       <c r="E192">
         <v>9.860628145365903</v>
@@ -3162,8 +3168,8 @@
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" t="s">
-        <v>14</v>
+      <c r="A193">
+        <v>9</v>
       </c>
       <c r="E193">
         <v>9.935</v>
@@ -3173,6 +3179,342 @@
       </c>
       <c r="G193" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>9.925565912405506</v>
+      </c>
+      <c r="F194">
+        <v>-84.16625976562501</v>
+      </c>
+      <c r="G194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>8.743936220084137</v>
+      </c>
+      <c r="F195">
+        <v>-85.11108398437501</v>
+      </c>
+      <c r="G195" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>9.935</v>
+      </c>
+      <c r="F196">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="G196" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>9.977</v>
+      </c>
+      <c r="F197">
+        <v>-84.188</v>
+      </c>
+      <c r="G197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <v>10.016</v>
+      </c>
+      <c r="F198">
+        <v>-84.21299999999999</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="E199">
+        <v>9.377247973297916</v>
+      </c>
+      <c r="F199">
+        <v>-83.8195525210938</v>
+      </c>
+      <c r="G199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="E200">
+        <v>9.860628145365903</v>
+      </c>
+      <c r="F200">
+        <v>-84.04541015625001</v>
+      </c>
+      <c r="G200" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>9</v>
+      </c>
+      <c r="E201">
+        <v>9.935</v>
+      </c>
+      <c r="F201">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="G201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>9.925565912405506</v>
+      </c>
+      <c r="F202">
+        <v>-84.16625976562501</v>
+      </c>
+      <c r="G202" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>8.743936220084137</v>
+      </c>
+      <c r="F203">
+        <v>-85.11108398437501</v>
+      </c>
+      <c r="G203" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>3</v>
+      </c>
+      <c r="E204">
+        <v>9.935</v>
+      </c>
+      <c r="F204">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="E205">
+        <v>9.977</v>
+      </c>
+      <c r="F205">
+        <v>-84.188</v>
+      </c>
+      <c r="G205" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>5</v>
+      </c>
+      <c r="E206">
+        <v>10.016</v>
+      </c>
+      <c r="F206">
+        <v>-84.21299999999999</v>
+      </c>
+      <c r="G206" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="E207">
+        <v>9.377247973297916</v>
+      </c>
+      <c r="F207">
+        <v>-83.8195525210938</v>
+      </c>
+      <c r="G207" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="E208">
+        <v>9.860628145365903</v>
+      </c>
+      <c r="F208">
+        <v>-84.04541015625001</v>
+      </c>
+      <c r="G208" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="E209">
+        <v>9.935</v>
+      </c>
+      <c r="F209">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="G209" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>9.925565912405506</v>
+      </c>
+      <c r="F210">
+        <v>-84.16625976562501</v>
+      </c>
+      <c r="G210" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211">
+        <v>8.743936220084137</v>
+      </c>
+      <c r="F211">
+        <v>-85.11108398437501</v>
+      </c>
+      <c r="G211" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212">
+        <v>9.935</v>
+      </c>
+      <c r="F212">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="G212" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213">
+        <v>9.977</v>
+      </c>
+      <c r="F213">
+        <v>-84.188</v>
+      </c>
+      <c r="G213" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E214">
+        <v>10.016</v>
+      </c>
+      <c r="F214">
+        <v>-84.21299999999999</v>
+      </c>
+      <c r="G214" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215">
+        <v>9.377247973297916</v>
+      </c>
+      <c r="F215">
+        <v>-83.8195525210938</v>
+      </c>
+      <c r="G215" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216">
+        <v>9.860628145365903</v>
+      </c>
+      <c r="F216">
+        <v>-84.04541015625001</v>
+      </c>
+      <c r="G216" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217">
+        <v>9.935</v>
+      </c>
+      <c r="F217">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="G217" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/posiciones.xlsx
+++ b/data/posiciones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,318 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ricardo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Vigente</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>8.648095982874079</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-83.73422215451265</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ricardo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Vigente</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>9.66476755630492</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-83.60864026397024</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>9.936870483057699</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-83.24460629558965</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>8.391659697604995</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-83.1757621674498</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Por vencer</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10.25489325497851</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-83.0847209579649</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>11.00098763243626</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-82.48088590190869</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>10.9938002660345</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-82.76849073978178</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Manuel</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Por vencer</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>8.362647280788314</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-82.60047134723389</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>8.214068223634941</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-83.54146351366171</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>9.516712090383992</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-82.40371033704683</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>8.346347538953188</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-82.73732785586918</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
